--- a/Data/EC/NIT-9004835411.xlsx
+++ b/Data/EC/NIT-9004835411.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A158E2D-4F73-4F8E-8EB4-2C2CABBD4FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B7ACED-8164-4E9B-98DE-B242083B3114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7196F36E-E773-4423-AE9C-659CCAE2A14C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4DF97B6-5EF4-4C7D-8E82-B22673A465A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="128">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,316 +71,322 @@
     <t>NASSIR JAVIER JUNCO FLOREZ</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
+    <t>79628075</t>
+  </si>
+  <si>
+    <t>YANH ARTURO DIAZ DELGADO</t>
   </si>
   <si>
     <t>1143363278</t>
   </si>
   <si>
     <t>ANGEL ALBERTO ALEMAN TAJAN</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -794,7 +800,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7518D7C0-FD94-74EA-4B5B-C40CD21FA62A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF808C7B-6C51-87B7-9AB1-95D64A035692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,8 +1151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D251688-9FD7-4687-9F11-1FBB85CD77F8}">
-  <dimension ref="B2:J124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD38BC-6209-4134-B7B1-37A329516FC1}">
+  <dimension ref="B2:J131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1170,7 +1176,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1215,7 +1221,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1247,12 +1253,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3066457</v>
+        <v>3397524</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1263,14 +1269,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F13" s="5">
         <v>102</v>
@@ -1300,13 +1306,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1323,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25774</v>
+        <v>11458</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1346,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1369,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1392,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1415,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1438,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1461,7 +1467,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1484,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1507,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1530,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1553,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1576,7 +1582,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1599,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1622,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1645,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1668,7 +1674,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1691,7 +1697,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1714,7 +1720,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1737,7 +1743,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1760,7 +1766,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1783,7 +1789,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1806,7 +1812,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1829,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1852,7 +1858,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1875,7 +1881,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1898,7 +1904,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -2579,19 +2585,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F71" s="18">
-        <v>41200</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2608,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2631,7 +2637,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2654,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2677,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2700,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2723,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2746,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2769,7 +2775,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2792,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2815,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2838,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2861,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2884,7 +2890,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2907,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2930,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2953,7 +2959,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2976,7 +2982,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2999,7 +3005,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3022,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3045,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3068,10 +3074,10 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3091,10 +3097,10 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3114,10 +3120,10 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3137,10 +3143,10 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3160,10 +3166,10 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3183,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3206,10 +3212,10 @@
         <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3229,10 +3235,10 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3252,10 +3258,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3275,10 +3281,10 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3298,10 +3304,10 @@
         <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3321,10 +3327,10 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3344,10 +3350,10 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3367,10 +3373,10 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3390,10 +3396,10 @@
         <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3413,10 +3419,10 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3436,10 +3442,10 @@
         <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3459,10 +3465,10 @@
         <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3482,10 +3488,10 @@
         <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3505,10 +3511,10 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3528,10 +3534,10 @@
         <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3551,10 +3557,10 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3574,10 +3580,10 @@
         <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3597,10 +3603,10 @@
         <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3620,10 +3626,10 @@
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3643,10 +3649,10 @@
         <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3656,56 +3662,217 @@
       <c r="J117" s="20"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="22" t="s">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F118" s="24">
-        <v>11458</v>
-      </c>
-      <c r="G118" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="26"/>
+      <c r="E118" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="18">
+        <v>19067</v>
+      </c>
+      <c r="G118" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G119" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G120" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G121" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G122" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123" s="32"/>
-      <c r="H123" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G123" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" s="32"/>
-      <c r="H124" s="1" t="s">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G124" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F125" s="24">
+        <v>41200</v>
+      </c>
+      <c r="G125" s="24">
+        <v>900000</v>
+      </c>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="26"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="H130" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="C131" s="32"/>
+      <c r="H131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="H130:J130"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004835411.xlsx
+++ b/Data/EC/NIT-9004835411.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B7ACED-8164-4E9B-98DE-B242083B3114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1872CA65-22F7-4D04-9D0D-E2ABACD6EC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4DF97B6-5EF4-4C7D-8E82-B22673A465A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E6C57625-F217-4D93-BBB5-63AD2F1BCD74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="126">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,322 +71,316 @@
     <t>NASSIR JAVIER JUNCO FLOREZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1143363278</t>
+  </si>
+  <si>
+    <t>ANGEL ALBERTO ALEMAN TAJAN</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
     <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>79628075</t>
-  </si>
-  <si>
-    <t>YANH ARTURO DIAZ DELGADO</t>
-  </si>
-  <si>
-    <t>1143363278</t>
-  </si>
-  <si>
-    <t>ANGEL ALBERTO ALEMAN TAJAN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -485,7 +479,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -498,9 +494,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -700,23 +694,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,10 +738,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,7 +794,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF808C7B-6C51-87B7-9AB1-95D64A035692}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0EAD32-40E4-C9C4-238C-E26103C99413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,8 +1145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD38BC-6209-4134-B7B1-37A329516FC1}">
-  <dimension ref="B2:J131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841EF1E8-9E8F-4DC0-8770-F52A7DC7E716}">
+  <dimension ref="B2:J124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1176,7 +1170,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1221,7 +1215,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1253,12 +1247,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3397524</v>
+        <v>3066457</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1269,14 +1263,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="5">
         <v>102</v>
@@ -1306,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1329,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>11458</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1352,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1375,7 +1369,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1398,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1421,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1444,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1467,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1490,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1513,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1536,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1559,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1582,7 +1576,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1605,7 +1599,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1628,7 +1622,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1651,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1674,7 +1668,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1697,7 +1691,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1720,7 +1714,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1743,7 +1737,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1766,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1789,7 +1783,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1812,7 +1806,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1835,7 +1829,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1858,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1881,7 +1875,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1904,7 +1898,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -2585,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>41200</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2614,7 +2608,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2637,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2660,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2683,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2706,7 +2700,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2729,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2752,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2775,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2798,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2821,7 +2815,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2844,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2867,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2890,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2913,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2936,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2959,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2982,7 +2976,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -3005,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3028,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3051,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3074,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F92" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3097,10 +3091,10 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F93" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3120,10 +3114,10 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F94" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3143,10 +3137,10 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F95" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3166,10 +3160,10 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3189,10 +3183,10 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F97" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3212,10 +3206,10 @@
         <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F98" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3235,10 +3229,10 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F99" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3258,10 +3252,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F100" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3281,10 +3275,10 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F101" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3304,10 +3298,10 @@
         <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F102" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3327,10 +3321,10 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F103" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3350,10 +3344,10 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F104" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3373,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F105" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3396,10 +3390,10 @@
         <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F106" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3419,10 +3413,10 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F107" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3442,10 +3436,10 @@
         <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F108" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3465,10 +3459,10 @@
         <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F109" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3488,10 +3482,10 @@
         <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F110" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3511,10 +3505,10 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F111" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3534,10 +3528,10 @@
         <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F112" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3557,10 +3551,10 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F113" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3580,10 +3574,10 @@
         <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F114" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3603,10 +3597,10 @@
         <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F115" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3626,10 +3620,10 @@
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F116" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3649,10 +3643,10 @@
         <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F117" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3662,217 +3656,56 @@
       <c r="J117" s="20"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D118" s="17" t="s">
+      <c r="B118" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E118" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="18">
-        <v>19067</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F118" s="24">
+        <v>11458</v>
+      </c>
+      <c r="G118" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="26"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="B123" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="H123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F124" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G124" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F125" s="24">
-        <v>41200</v>
-      </c>
-      <c r="G125" s="24">
-        <v>900000</v>
-      </c>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="26"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C130" s="32"/>
-      <c r="H130" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="32" t="s">
+      <c r="B124" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="32"/>
+      <c r="H124" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="32"/>
-      <c r="H131" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="H123:J123"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
